--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Kuan Huang Lun</t>
   </si>
@@ -43,13 +43,67 @@
   </si>
   <si>
     <t>Dominik Valka</t>
+  </si>
+  <si>
+    <t>UML Klassendiagramm</t>
+  </si>
+  <si>
+    <t>UML Aktivitätsdiagramm</t>
+  </si>
+  <si>
+    <t>UML Use Case Diagramm</t>
+  </si>
+  <si>
+    <t>Testfälle</t>
+  </si>
+  <si>
+    <t>Recherche Testfälle</t>
+  </si>
+  <si>
+    <t>Designkonzept Server</t>
+  </si>
+  <si>
+    <t>Designkonzept Client</t>
+  </si>
+  <si>
+    <t>TDD Testfälle</t>
+  </si>
+  <si>
+    <t>Entwurf Verbindung</t>
+  </si>
+  <si>
+    <t>Entwurf Server</t>
+  </si>
+  <si>
+    <t>Entwurf Client</t>
+  </si>
+  <si>
+    <t>Usability Test</t>
+  </si>
+  <si>
+    <t>Implementierung Server</t>
+  </si>
+  <si>
+    <t>Implementierung Client</t>
+  </si>
+  <si>
+    <t>Anpassungen und Abstimmungen</t>
+  </si>
+  <si>
+    <t>Zeitaufzeichnung</t>
+  </si>
+  <si>
+    <t>Designkonzepte Verbindung</t>
+  </si>
+  <si>
+    <t>Implementierung Verbindung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +135,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -272,15 +333,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -288,6 +399,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,18 +414,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -638,391 +762,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1">
-      <c r="A2" s="13" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" thickBot="1">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
+      <c r="E8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <f>SUM(B3:B8)</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <f>SUM(C3:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <f>SUM(F3:F8)</f>
+        <v>12</v>
+      </c>
+      <c r="G9" s="6">
+        <f>SUM(G3:G8)</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="E12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="16" thickBot="1">
+      <c r="A13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" ht="16" thickBot="1">
-      <c r="A21" s="4" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" thickBot="1">
+      <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="5">
-        <f t="shared" ref="B21:L21" si="0">SUM(B3:B20)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="B20" s="5">
+        <f>SUM(B14:B19)</f>
+        <v>11.5</v>
+      </c>
+      <c r="C20" s="6">
+        <f>SUM(C14:C19)</f>
+        <v>2.6</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F20" s="5">
+        <f>SUM(F14:F19)</f>
+        <v>11</v>
+      </c>
+      <c r="G20" s="6">
+        <f>SUM(G14:G19)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -405,6 +405,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,15 +423,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -785,16 +785,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="16" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -820,7 +820,9 @@
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
       <c r="C3" s="9"/>
       <c r="E3" s="7" t="s">
         <v>8</v>
@@ -837,7 +839,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -856,7 +858,9 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="E5" s="1" t="s">
         <v>24</v>
@@ -872,7 +876,9 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -886,7 +892,9 @@
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -897,14 +905,14 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="2">
@@ -918,7 +926,7 @@
       </c>
       <c r="B9" s="5">
         <f>SUM(B3:B8)</f>
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="C9" s="6">
         <f>SUM(C3:C8)</f>
@@ -938,16 +946,16 @@
     </row>
     <row r="11" spans="1:7" ht="16" thickBot="1"/>
     <row r="12" spans="1:7">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="E12" s="13" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="E12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
@@ -959,7 +967,7 @@
       <c r="C13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="10" t="s">
         <v>1</v>
       </c>
@@ -980,7 +988,7 @@
       <c r="C14" s="9">
         <v>0.8</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1001,7 +1009,7 @@
       <c r="C15" s="3">
         <v>0.3</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1022,7 +1030,7 @@
       <c r="C16" s="3">
         <v>1.5</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1058,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1068,15 +1076,15 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="2">
@@ -1096,7 +1104,7 @@
         <f>SUM(C14:C19)</f>
         <v>2.6</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1110,74 +1118,74 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
